--- a/Presentacion 1/resultados.xlsx
+++ b/Presentacion 1/resultados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostina.giovanardi\Documents\GitHub\Big-Data-Grupo-2\Presentacion 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF040F-88F6-45A3-8744-8CF349B3F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Matemática" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>variable</t>
   </si>
@@ -297,12 +298,6 @@
   </si>
   <si>
     <t>Ventajas y desventajas del metodo alternativo</t>
-  </si>
-  <si>
-    <t>Qué graficos hacer?</t>
-  </si>
-  <si>
-    <t>Mantener mismo diseño gráfico para la presentacion?</t>
   </si>
   <si>
     <t xml:space="preserve">5 o 10 predictores mas importantes, grafico comparando coefificente de lasso y ols </t>
@@ -341,7 +336,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -411,11 +406,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,9 +436,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -479,9 +476,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,7 +548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -724,7 +721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E73"/>
   <sheetViews>
@@ -1976,13 +1973,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73">
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="lessThan" val="0.15"/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:E73">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
@@ -1991,11 +1988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2009,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2023,7 +2020,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
@@ -2032,7 +2029,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
@@ -2041,7 +2038,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2052,7 +2049,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
@@ -2061,7 +2058,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>83</v>
       </c>
@@ -2070,7 +2067,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2081,7 +2078,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>82</v>
       </c>
@@ -2090,7 +2087,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>83</v>
       </c>
@@ -2110,108 +2107,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2222,21 +2217,21 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Presentacion 1/resultados.xlsx
+++ b/Presentacion 1/resultados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostina.giovanardi\Documents\GitHub\Big-Data-Grupo-2\Presentacion 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEFANO\Documents\GitHub\Big-Data-y-Machine-Learning\Presentacion 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FF040F-88F6-45A3-8744-8CF349B3F060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Matemática" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>variable</t>
   </si>
@@ -331,12 +330,27 @@
   </si>
   <si>
     <t>que recomendariamos</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meterle algun chiche mas a la primer slide </t>
+  </si>
+  <si>
+    <t>para la seccion del modelo, ver si separarla en dos, tuning y selección de variables</t>
+  </si>
+  <si>
+    <t>conclusiones en base a presentacion terminada, con vista a alguna recomendación como economistas e incluyendo bibliografia externa</t>
+  </si>
+  <si>
+    <t>sumar un analisis de paises</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -407,11 +421,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,9 +451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -476,9 +491,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,7 +528,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,12 +736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -788,7 +802,7 @@
         <v>7.383740329708718E-94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1196,7 +1210,7 @@
         <v>7.6999781404307301E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1261,7 @@
         <v>0.1078606835471258</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>0.15552120832415961</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>0.2136374851531733</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>0.22613377668704979</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>0.74932648565557458</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1346,7 @@
         <v>0.72146085265493032</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>0.87473764992456404</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1451,7 +1465,7 @@
         <v>1.1510255687624839E-16</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1480,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1481,7 +1495,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>0.93097899726069766</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1515,7 +1529,7 @@
         <v>0.52132594297299506</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>1.405243172701879E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>3.86903522836111E-22</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1973,13 +1987,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="lessThan" val="0.15"/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+  <autoFilter ref="A1:E73">
+    <sortState ref="A2:E73">
       <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
@@ -1988,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -2009,7 +2018,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2020,7 +2029,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>82</v>
       </c>
@@ -2029,7 +2038,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
@@ -2038,7 +2047,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2049,7 +2058,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
@@ -2058,7 +2067,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>83</v>
       </c>
@@ -2067,7 +2076,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2078,7 +2087,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>82</v>
       </c>
@@ -2087,7 +2096,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>83</v>
       </c>
@@ -2107,72 +2116,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2194,13 +2203,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2231,7 +2240,29 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
